--- a/example_phrases.xlsx
+++ b/example_phrases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/PycharmProjects/Hybrid-Code-Networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883759E-31DF-754A-BDF5-CB2CC38104D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A059DD2-2419-AD45-B705-C0D8A4FA4DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="34620" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2260" windowWidth="28800" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1675,16 +1675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" customWidth="1"/>
     <col min="6" max="6" width="82.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
